--- a/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
@@ -1050,25 +1050,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6551724137931034</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L17">
         <v>152</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1258,25 +1258,25 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5457317073170732</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L25">
         <v>179</v>
       </c>
       <c r="M25">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="10:17">
